--- a/external/PerfVarShift.xlsx
+++ b/external/PerfVarShift.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Desktop\Coding\Filling SIMD gaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB302CF0-AE1B-4100-9692-29E188DBCCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF7726E-8B6C-444A-A8E4-988C8B7EDFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{395B90C2-E5A1-4B1B-8B08-7B8CE154B6A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>GCC</t>
   </si>
@@ -112,6 +112,25 @@
   <si>
     <t>Goldmont +</t>
   </si>
+  <si>
+    <r>
+      <t>directBitByB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <t>Zen4 (R5 8400f)</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -324,11 +343,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +418,25 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,9 +449,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,12 +461,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,11 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0081CB9-D5CB-4347-8A8C-5099AF4A23F5}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,8 +822,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
@@ -808,41 +852,41 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="25" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -873,9 +917,9 @@
       <c r="K4" s="8">
         <v>2.02</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -911,7 +955,7 @@
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="39" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2">
@@ -944,1151 +988,1499 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.66</v>
-      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="7"/>
       <c r="H7" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="K7" s="21">
-        <v>1.06</v>
-      </c>
+        <v>1.05</v>
+      </c>
+      <c r="K7" s="21"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D8" s="2">
-        <v>1.36</v>
+        <v>0.65</v>
       </c>
       <c r="E8" s="2">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F8" s="2">
-        <v>1.31</v>
+        <v>0.66</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="2">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="I8" s="2">
-        <v>3.09</v>
+        <v>3.58</v>
       </c>
       <c r="J8" s="2">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="K8" s="21">
-        <v>0.57999999999999996</v>
+        <v>1.06</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.36</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.31</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.98</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.58</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2">
-        <v>4.93</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8.02</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3.01</v>
-      </c>
-      <c r="K10" s="21">
-        <v>2.59</v>
-      </c>
+      <c r="B10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>6</v>
       </c>
       <c r="C11" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.67</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.68</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="2">
-        <v>1.27</v>
+        <v>4.93</v>
       </c>
       <c r="I11" s="2">
-        <v>2.27</v>
+        <v>8.02</v>
       </c>
       <c r="J11" s="2">
-        <v>0.64</v>
+        <v>3.01</v>
       </c>
       <c r="K11" s="21">
-        <v>0.41</v>
+        <v>2.59</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1.19</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.92</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.89</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10">
-        <v>2.1</v>
-      </c>
-      <c r="I12" s="10">
-        <v>4.49</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1.08</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1.04</v>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0.41</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="K13" s="21"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="32" t="s">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>4.49</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="K14" s="22">
+        <v>1.04</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0.49</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2.71</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="I15" s="2">
-        <v>5.66</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1.97</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.82</v>
-      </c>
+      <c r="C16" s="29"/>
       <c r="D16" s="29"/>
-      <c r="E16" s="2">
-        <v>1.89</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2">
-        <v>3.36</v>
-      </c>
-      <c r="I16" s="2">
-        <v>4.16</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1.1599999999999999</v>
-      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.59</v>
+        <v>1.95</v>
+      </c>
+      <c r="D17" s="35">
+        <v>0.49</v>
       </c>
       <c r="E17" s="2">
-        <v>0.65</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F17" s="2">
-        <v>0.64</v>
+        <v>2.71</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="2">
-        <v>1.37</v>
+        <v>3.22</v>
       </c>
       <c r="I17" s="2">
-        <v>2.63</v>
+        <v>5.66</v>
       </c>
       <c r="J17" s="2">
-        <v>0.63</v>
+        <v>1.97</v>
       </c>
       <c r="K17" s="8">
-        <v>0.46</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.62</v>
-      </c>
+        <v>1.82</v>
+      </c>
+      <c r="D18" s="35"/>
       <c r="E18" s="2">
-        <v>0.74</v>
+        <v>1.89</v>
       </c>
       <c r="F18" s="2">
-        <v>0.65</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="2">
-        <v>1.39</v>
+        <v>3.36</v>
       </c>
       <c r="I18" s="2">
-        <v>3.73</v>
+        <v>4.16</v>
       </c>
       <c r="J18" s="2">
-        <v>0.78</v>
+        <v>1.73</v>
       </c>
       <c r="K18" s="8">
-        <v>0.53</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>10</v>
+      <c r="B19" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="D19" s="2">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="E19" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.65</v>
       </c>
       <c r="F19" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.64</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="2">
-        <v>0.91</v>
+        <v>1.37</v>
       </c>
       <c r="I19" s="2">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="J19" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="K19" s="8">
-        <v>0.35</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="D20" s="2">
         <v>0.62</v>
       </c>
       <c r="E20" s="2">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="F20" s="2">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="2">
-        <v>0.94</v>
+        <v>1.39</v>
       </c>
       <c r="I20" s="2">
-        <v>2.12</v>
+        <v>3.73</v>
       </c>
       <c r="J20" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="J21" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K20" s="8">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="33"/>
+      <c r="K21" s="8">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2">
-        <v>1.99</v>
+        <v>0.59</v>
       </c>
       <c r="D22" s="2">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="E22" s="2">
-        <v>2.04</v>
+        <v>0.6</v>
       </c>
       <c r="F22" s="2">
-        <v>4</v>
+        <v>0.63</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="2">
-        <v>3.47</v>
+        <v>0.94</v>
       </c>
       <c r="I22" s="2">
-        <v>5.16</v>
+        <v>2.12</v>
       </c>
       <c r="J22" s="2">
-        <v>1.97</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K22" s="8">
-        <v>1.45</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0.36</v>
-      </c>
+      <c r="B23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="D24" s="2">
         <v>0.66</v>
       </c>
-      <c r="D24" s="2">
-        <v>0.63</v>
-      </c>
       <c r="E24" s="2">
-        <v>0.73</v>
+        <v>2.04</v>
       </c>
       <c r="F24" s="2">
-        <v>0.65</v>
+        <v>4</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="2">
+        <v>3.47</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5.16</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="2">
         <v>1.27</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I26" s="2">
         <v>2.8</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J26" s="2">
         <v>0.63</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K26" s="8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C27" s="10">
         <v>0.68</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D27" s="10">
         <v>0.62</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E27" s="10">
         <v>0.63</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F27" s="10">
         <v>0.66</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10">
+      <c r="G27" s="11"/>
+      <c r="H27" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I27" s="10">
         <v>2.31</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J27" s="10">
         <v>0.63</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K27" s="12">
         <v>0.41</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+    <row r="28" spans="1:17" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="Q26"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="34"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C30" s="2">
         <v>1.71</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D30" s="2">
         <v>0.44</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>0.78</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="2">
         <v>0.56999999999999995</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="2">
-        <v>2.38</v>
-      </c>
-      <c r="I28" s="2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="K28" s="8">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2">
-        <v>1.44</v>
-      </c>
-      <c r="I29" s="2">
-        <v>3.59</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.91</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="2">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="I30" s="2">
-        <v>3.94</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J30" s="2">
-        <v>1.07</v>
+        <v>1.64</v>
       </c>
       <c r="K30" s="8">
-        <v>0.74</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>10</v>
+      <c r="B31" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="2">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="D31" s="2">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
       <c r="E31" s="2">
-        <v>0.5</v>
+        <v>0.81</v>
       </c>
       <c r="F31" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.72</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="2">
-        <v>0.77</v>
+        <v>1.44</v>
       </c>
       <c r="I31" s="2">
-        <v>1.52</v>
+        <v>3.59</v>
       </c>
       <c r="J31" s="2">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
       <c r="K31" s="8">
-        <v>0.24</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>22</v>
+      <c r="B32" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C32" s="2">
-        <v>0.56999999999999995</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D32" s="2">
-        <v>0.45</v>
+        <v>0.93</v>
       </c>
       <c r="E32" s="2">
-        <v>0.52</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="F32" s="2">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="2">
-        <v>1.18</v>
+        <v>1.86</v>
       </c>
       <c r="I32" s="2">
-        <v>1.93</v>
+        <v>3.94</v>
       </c>
       <c r="J32" s="2">
-        <v>0.52</v>
+        <v>1.07</v>
       </c>
       <c r="K32" s="8">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33"/>
+      <c r="B33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1.52</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="K33" s="8">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2">
-        <v>1.76</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D34" s="2">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="E34" s="2">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="F34" s="2">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="2">
-        <v>2.37</v>
+        <v>1.18</v>
       </c>
       <c r="I34" s="2">
-        <v>3.8</v>
+        <v>1.93</v>
       </c>
       <c r="J34" s="2">
-        <v>1.64</v>
+        <v>0.52</v>
       </c>
       <c r="K34" s="8">
-        <v>1.17</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.77</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="2">
-        <v>1.34</v>
-      </c>
-      <c r="I35" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0.52</v>
-      </c>
+      <c r="B35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>22</v>
+      <c r="B36" t="s">
+        <v>6</v>
       </c>
       <c r="C36" s="2">
-        <v>0.56999999999999995</v>
+        <v>1.76</v>
       </c>
       <c r="D36" s="2">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="E36" s="2">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F36" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.66</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="2">
         <v>1.18</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I38" s="2">
         <v>1.9</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J38" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K38" s="8">
         <v>0.37</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C39" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D39" s="10">
         <v>0.51</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E39" s="10">
         <v>0.5</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F39" s="10">
         <v>0.59</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10">
+      <c r="G39" s="11"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10">
         <v>1.89</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="12"/>
-    </row>
-    <row r="38" spans="1:11" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
+      <c r="J39" s="10"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="33"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1.64</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="K40" s="8">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="K41" s="8">
-        <v>0.24</v>
-      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2">
-        <v>1.01</v>
+        <v>0.54</v>
       </c>
       <c r="D42" s="2">
-        <v>0.99</v>
+        <v>0.36</v>
       </c>
       <c r="E42" s="2">
-        <v>1.1100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="F42" s="2">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="2">
-        <v>1.73</v>
+        <v>0.85</v>
       </c>
       <c r="I42" s="2">
-        <v>4.3</v>
+        <v>1.64</v>
       </c>
       <c r="J42" s="2">
-        <v>0.97</v>
+        <v>0.53</v>
       </c>
       <c r="K42" s="8">
-        <v>0.82</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>8</v>
+      <c r="B43" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C43" s="2">
-        <v>1.51</v>
+        <v>0.51</v>
       </c>
       <c r="D43" s="2">
-        <v>1.27</v>
+        <v>0.37</v>
       </c>
       <c r="E43" s="2">
-        <v>1.58</v>
+        <v>0.44</v>
       </c>
       <c r="F43" s="2">
-        <v>1.21</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="2">
-        <v>2.61</v>
+        <v>0.68</v>
       </c>
       <c r="I43" s="2">
-        <v>5.64</v>
+        <v>1.3</v>
       </c>
       <c r="J43" s="2">
-        <v>1.44</v>
+        <v>0.48</v>
       </c>
       <c r="K43" s="8">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2">
-        <v>0.71</v>
+        <v>1.01</v>
       </c>
       <c r="D44" s="2">
-        <v>0.62</v>
+        <v>0.99</v>
       </c>
       <c r="E44" s="2">
-        <v>0.68</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F44" s="2">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="2">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="I44" s="2">
-        <v>2.71</v>
+        <v>4.3</v>
       </c>
       <c r="J44" s="2">
-        <v>0.69</v>
+        <v>0.97</v>
       </c>
       <c r="K44" s="8">
-        <v>0.46</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="33"/>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.27</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="I45" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C46" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.71</v>
       </c>
       <c r="D46" s="2">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="E46" s="2">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="F46" s="2">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="38"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="2">
         <v>0.93</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I48" s="2">
         <v>1.81</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J48" s="2">
         <v>0.53</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K48" s="8">
         <v>1.06</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="19" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C49" s="10">
         <v>0.44</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D49" s="10">
         <v>0.37</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E49" s="10">
         <v>0.43</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F49" s="10">
         <v>0.51</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="10">
+      <c r="G49" s="11"/>
+      <c r="H49" s="10">
         <v>0.68</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I49" s="10">
         <v>1.47</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J49" s="10">
         <v>0.42</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K49" s="12">
         <v>0.28999999999999998</v>
       </c>
     </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="23"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2">
+        <v>11.05</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E58" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="23"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1.57</v>
+      </c>
+      <c r="E68" s="10">
+        <v>1.83</v>
+      </c>
+      <c r="F68" s="10">
+        <v>1.56</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="19">
     <mergeCell ref="L2:N4"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A15:K15"/>
     <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A54:G55"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A40:K40"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15:E15 C18:F20 C16:C17 E16 D17:F17 F15:F16">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F8">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10:F12">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:F25">
+  <conditionalFormatting sqref="C17:E17 C20:F22 C18:C19 E18 D19:F19 F17:F18">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F9">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F14">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:F27">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:F39">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -2100,7 +2492,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34:F37">
+  <conditionalFormatting sqref="C42:F46 K46">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:F49">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:F63">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:F68">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H22">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H27">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H34">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H39">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:H46">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2112,19 +2624,223 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:F44 K44">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:F47">
+  <conditionalFormatting sqref="H48:H49">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I22">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I27">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I34">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I39">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:I46">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I49">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J9">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J14">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J22">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J34">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J39">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:J46">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J49">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K9">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K14">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -2136,380 +2852,68 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H8">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H12">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15:H20">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H25">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28:H32">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H37">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H44">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H47">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I20">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:I25">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I32">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I37">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I44">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I46:I47">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J8">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J12">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J20">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J25">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J32">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J37">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J44">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J46:J47">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K8">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K12">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K20">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22:K25">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28:K32 C28:F32">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K37">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K40:K44">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46:K47">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="K17:K22">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K27">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K34 C30:F34">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:K39">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:K46">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:K49">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/external/PerfVarShift.xlsx
+++ b/external/PerfVarShift.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Desktop\Coding\Filling SIMD gaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF7726E-8B6C-444A-A8E4-988C8B7EDFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C251F50-B5FD-46B8-BD0B-08E0D73490DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{395B90C2-E5A1-4B1B-8B08-7B8CE154B6A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>GCC</t>
   </si>
@@ -130,6 +130,38 @@
   </si>
   <si>
     <t>Zen4 (R5 8400f)</t>
+  </si>
+  <si>
+    <r>
+      <t>pow2Float</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>repeatHalf</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -358,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,9 +451,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,37 +490,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,11 +841,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0081CB9-D5CB-4347-8A8C-5099AF4A23F5}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,8 +858,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
@@ -852,41 +888,41 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="32" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -917,9 +953,9 @@
       <c r="K4" s="8">
         <v>2.02</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -955,7 +991,7 @@
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2">
@@ -1071,18 +1107,18 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="38"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1205,36 +1241,36 @@
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="38"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1243,7 +1279,7 @@
       <c r="C17" s="2">
         <v>1.95</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="28">
         <v>0.49</v>
       </c>
       <c r="E17" s="2">
@@ -1273,7 +1309,7 @@
       <c r="C18" s="2">
         <v>1.82</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="2">
         <v>1.89</v>
       </c>
@@ -1415,18 +1451,18 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="38"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1550,34 +1586,34 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="34"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
       <c r="Q28"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="38"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1730,18 +1766,18 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="38"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
@@ -1859,33 +1895,33 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="38"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -2038,18 +2074,18 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="38"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -2113,56 +2149,56 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
       <c r="G57" s="23"/>
       <c r="H57"/>
       <c r="I57"/>
@@ -2302,13 +2338,13 @@
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
       <c r="G64" s="23"/>
       <c r="H64"/>
       <c r="I64"/>
@@ -2382,43 +2418,214 @@
       <c r="K67"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="41">
         <v>2</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="41">
         <v>1.57</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="41">
         <v>1.83</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="41">
         <v>1.56</v>
       </c>
-      <c r="G68" s="11"/>
+      <c r="G68" s="7"/>
       <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G69" s="11"/>
       <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
     </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="23"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="7"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="7"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="L2:N4"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B16:K16"/>
+  <mergeCells count="22">
+    <mergeCell ref="A70:G70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B79:F79"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A54:G55"/>
     <mergeCell ref="B57:F57"/>
@@ -2431,8 +2638,291 @@
     <mergeCell ref="B35:K35"/>
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A40:K40"/>
+    <mergeCell ref="L2:N4"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B16:K16"/>
   </mergeCells>
   <conditionalFormatting sqref="C17:E17 C20:F22 C18:C19 E18 D19:F19 F17:F18">
+    <cfRule type="colorScale" priority="126">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:F9">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:F14">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:F27">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:F39">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:F46 K46">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:F49">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H9">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H22">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H27">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H34">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36:H39">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:H46">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H49">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I9">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I14">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I22">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I27">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I34">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I39">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:I46">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:I49">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J9">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -2444,19 +2934,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:F9">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:F14">
+  <conditionalFormatting sqref="J11:J14">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J22">
+    <cfRule type="colorScale" priority="132">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J27">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J34">
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J39">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -2468,7 +2994,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:F27">
+  <conditionalFormatting sqref="J42:J46">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J49">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -2480,31 +3018,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36:F39">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:F46 K46">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:F49">
+  <conditionalFormatting sqref="K4:K9">
+    <cfRule type="colorScale" priority="124">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K14">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:K22">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K27">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -2516,8 +3066,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K34 C30:F34">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:K39">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42:K46">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48:K49">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C58:F63">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:F83">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:F78">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2529,391 +3151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:F68">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H9">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H22">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H27">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H34">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H39">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:H46">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H49">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I14">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I22">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I27">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I34">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36:I39">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:I46">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I49">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J9">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J14">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J22">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J27">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J34">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J39">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J42:J46">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J49">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K9">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K14">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K22">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K27">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:K34 C30:F34">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:K39">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42:K46">
-    <cfRule type="colorScale" priority="153">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K48:K49">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
